--- a/data/homeless.xlsx
+++ b/data/homeless.xlsx
@@ -391,11 +391,11 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.013605442176871</v>
+        <v>1.049645390070922</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -411,11 +411,11 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.755102040816326</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2.918367346938775</v>
+        <v>1.521276595744681</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -451,11 +451,11 @@
         </is>
       </c>
       <c r="C5">
-        <v>1.986394557823129</v>
+        <v>1.035460992907801</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2.918367346938775</v>
+        <v>1.521276595744681</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>3.63265306122449</v>
+        <v>1.893617021276596</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,11 +511,11 @@
         </is>
       </c>
       <c r="C8">
-        <v>2.204081632653061</v>
+        <v>1.148936170212766</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>3.63265306122449</v>
+        <v>1.893617021276596</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.2244897959183673</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.2244897959183673</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.2244897959183673</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.2244897959183673</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.3265306122448979</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.3265306122448979</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.8163265306122449</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.5212765957446809</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -711,11 +711,11 @@
         </is>
       </c>
       <c r="C18">
-        <v>1.224489795918367</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.8979591836734694</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.8979591836734694</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -771,11 +771,11 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.061224489795918</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.4897959183673469</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.4897959183673469</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2.571428571428571</v>
+        <v>1.340425531914894</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -851,11 +851,11 @@
         </is>
       </c>
       <c r="C25">
-        <v>2.789115646258503</v>
+        <v>1.453900709219858</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3.081632653061225</v>
+        <v>1.606382978723404</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>3.081632653061225</v>
+        <v>1.606382978723404</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3.122448979591836</v>
+        <v>1.627659574468085</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -931,11 +931,11 @@
         </is>
       </c>
       <c r="C29">
-        <v>2.176870748299319</v>
+        <v>1.134751773049645</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -951,11 +951,11 @@
         </is>
       </c>
       <c r="C30">
-        <v>2.666666666666667</v>
+        <v>1.390070921985816</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="C31">
-        <v>1.775510204081633</v>
+        <v>0.925531914893617</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>2.571428571428571</v>
+        <v>1.340425531914894</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1011,11 +1011,11 @@
         </is>
       </c>
       <c r="C33">
-        <v>1.918367346938775</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1031,11 +1031,11 @@
         </is>
       </c>
       <c r="C34">
-        <v>1.612244897959184</v>
+        <v>0.8404255319148937</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1051,11 +1051,11 @@
         </is>
       </c>
       <c r="C35">
-        <v>1.523809523809524</v>
+        <v>0.7943262411347518</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="C36">
-        <v>2.54421768707483</v>
+        <v>1.326241134751773</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>2.612244897959183</v>
+        <v>1.361702127659574</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>2.612244897959183</v>
+        <v>1.361702127659574</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1131,11 +1131,11 @@
         </is>
       </c>
       <c r="C39">
-        <v>2.530612244897959</v>
+        <v>1.319148936170213</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>2.54421768707483</v>
+        <v>1.326241134751773</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>2.612244897959183</v>
+        <v>1.361702127659574</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1191,11 +1191,11 @@
         </is>
       </c>
       <c r="C42">
-        <v>1.945578231292517</v>
+        <v>1.014184397163121</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>2.571428571428571</v>
+        <v>1.340425531914894</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1231,11 +1231,11 @@
         </is>
       </c>
       <c r="C44">
-        <v>2.027210884353742</v>
+        <v>1.056737588652482</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1251,11 +1251,11 @@
         </is>
       </c>
       <c r="C45">
-        <v>2.013605442176871</v>
+        <v>1.049645390070922</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.7346938775510204</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1291,11 +1291,11 @@
         </is>
       </c>
       <c r="C47">
-        <v>1.918367346938775</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1311,11 +1311,11 @@
         </is>
       </c>
       <c r="C48">
-        <v>1.622448979591837</v>
+        <v>0.8457446808510638</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1331,11 +1331,11 @@
         </is>
       </c>
       <c r="C49">
-        <v>1.63265306122449</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1351,11 +1351,11 @@
         </is>
       </c>
       <c r="C50">
-        <v>1.523809523809524</v>
+        <v>0.7943262411347518</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1371,11 +1371,11 @@
         </is>
       </c>
       <c r="C51">
-        <v>2.013605442176871</v>
+        <v>1.049645390070922</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1391,11 +1391,11 @@
         </is>
       </c>
       <c r="C52">
-        <v>1.918367346938775</v>
+        <v>1</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1411,11 +1411,11 @@
         </is>
       </c>
       <c r="C53">
-        <v>2.510204081632653</v>
+        <v>1.308510638297872</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.8571428571428571</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>2.102040816326531</v>
+        <v>1.095744680851064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>2.122448979591837</v>
+        <v>1.106382978723404</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.8843537414965985</v>
+        <v>0.4609929078014184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.6394557823129252</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1531,11 +1531,11 @@
         </is>
       </c>
       <c r="C59">
-        <v>1.877551020408163</v>
+        <v>0.9787234042553191</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1551,11 +1551,11 @@
         </is>
       </c>
       <c r="C60">
-        <v>2.387755102040816</v>
+        <v>1.24468085106383</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1571,11 +1571,11 @@
         </is>
       </c>
       <c r="C61">
-        <v>2.204081632653061</v>
+        <v>1.148936170212766</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1591,11 +1591,11 @@
         </is>
       </c>
       <c r="C62">
-        <v>2.530612244897959</v>
+        <v>1.319148936170213</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2nd Tier</t>
+          <t>3rd Tier</t>
         </is>
       </c>
     </row>
@@ -1611,11 +1611,11 @@
         </is>
       </c>
       <c r="C63">
-        <v>1.945578231292517</v>
+        <v>1.014184397163121</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.6394557823129252</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1651,11 +1651,11 @@
         </is>
       </c>
       <c r="C65">
-        <v>1.918367346938775</v>
+        <v>1</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3rd Tier</t>
+          <t>4th Tier</t>
         </is>
       </c>
     </row>
@@ -1671,11 +1671,11 @@
         </is>
       </c>
       <c r="C66">
-        <v>1.319727891156462</v>
+        <v>0.6879432624113476</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.8843537414965985</v>
+        <v>0.4609929078014184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1711,11 +1711,11 @@
         </is>
       </c>
       <c r="C68">
-        <v>2.789115646258503</v>
+        <v>1.453900709219858</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.2857142857142857</v>
+        <v>0.148936170212766</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1751,11 +1751,11 @@
         </is>
       </c>
       <c r="C70">
-        <v>1.306122448979592</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1771,11 +1771,11 @@
         </is>
       </c>
       <c r="C71">
-        <v>2.789115646258503</v>
+        <v>1.453900709219858</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1st Tier</t>
+          <t>2nd Tier</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.2244897959183673</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.6122448979591837</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1831,11 +1831,11 @@
         </is>
       </c>
       <c r="C74">
-        <v>1.571428571428571</v>
+        <v>0.8191489361702128</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>2.918367346938775</v>
+        <v>1.521276595744681</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>2.789115646258503</v>
+        <v>1.453900709219858</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1891,7 +1891,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>2.081632653061225</v>
+        <v>1.085106382978723</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>2.925170068027211</v>
+        <v>1.524822695035461</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1931,11 +1931,11 @@
         </is>
       </c>
       <c r="C79">
-        <v>1.755102040816326</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
@@ -1951,11 +1951,11 @@
         </is>
       </c>
       <c r="C80">
-        <v>1.27891156462585</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4th Tier</t>
+          <t>Below Median</t>
         </is>
       </c>
     </row>
